--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>C:\Users\pesh\Documents\UiPath\PPS-Login-REF\Data\Input\TestData.xlsx</t>
+  </si>
+  <si>
+    <t>Data\Output\Results.xlsx</t>
+  </si>
+  <si>
+    <t>ResultsData_path</t>
   </si>
 </sst>
 </file>
@@ -549,7 +555,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -645,7 +651,14 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -170,13 +170,13 @@
     <t>TestData_Path</t>
   </si>
   <si>
-    <t>C:\Users\pesh\Documents\UiPath\PPS-Login-REF\Data\Input\TestData.xlsx</t>
-  </si>
-  <si>
     <t>Data\Output\Results.xlsx</t>
   </si>
   <si>
     <t>ResultsData_path</t>
+  </si>
+  <si>
+    <t>Data\Input\TestData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -647,16 +647,16 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
